--- a/Anexos/Metodología de selección de la aplicación a Audita.xlsx
+++ b/Anexos/Metodología de selección de la aplicación a Audita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{03D60F4E-585C-45B4-8A47-657090932ADF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="3" xr2:uid="{03D60F4E-585C-45B4-8A47-657090932ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo_Facturación" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -189,15 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,6 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,7 +226,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145FC8A1-5470-4FF9-8E73-90BC5D990499}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,212 +563,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <f>C20*H12</f>
+        <v>334.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="13">
+        <f>1+0.6</f>
+        <v>1.6</v>
+      </c>
       <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <f>H8*H9*H10*H11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <f>C8*C9*C10*C11*C12*C13*C14*C15*C16*C17*C18*C19</f>
-        <v>0</v>
+        <v>111.375</v>
       </c>
     </row>
   </sheetData>
@@ -777,219 +822,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E075278-244E-474B-A3B8-F097D8AC982A}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <f>C20*H12</f>
+        <v>132.890625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="13">
+        <f>1+0.4</f>
+        <v>1.4</v>
+      </c>
       <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H10" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="2">
         <f>H8*H9*H10*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="C13" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="C14" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C16" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <f>C8*C9*C10*C11*C12*C13*C14*C15*C16*C17*C18*C19</f>
-        <v>0</v>
+        <v>44.296875</v>
       </c>
     </row>
   </sheetData>
@@ -1009,229 +1098,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3D7C6A-F835-43D5-BDBF-930A24F640AA}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <f>C20*H12</f>
+        <v>47.4609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="13">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
       <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H10" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <f>H8*H9*H10*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="C13" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="C14" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C16" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <f>C8*C9*C10*C11*C12*C13*C14*C15*C16*C17*C18*C19</f>
-        <v>0</v>
+        <v>15.8203125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1242,229 +1372,271 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <f>C20*H12</f>
+        <v>56.953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4">
+        <f>1+0+0</f>
+        <v>1</v>
+      </c>
       <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
       <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H10" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <f>H8*H9*H10*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="C13" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="C14" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C16" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <f>C8*C9*C10*C11*C12*C13*C14*C15*C16*C17*C18*C19</f>
-        <v>0</v>
+        <v>18.984375</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>